--- a/data/Table7_EA.xlsx
+++ b/data/Table7_EA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\GSI Work Files\5648_SERDP_Borden\5648_TA2_Transition_Assessment_Assistant_working\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmori\Desktop\5648_TA2_Transition_Assessment_Assistant_working\5648_TA2-Transition-Assessment-Assistant_1a\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D20D254-8D64-42EF-9146-7DFD73D67F64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C7DC46-3737-4BC0-AD18-5296934EC0CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,18 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
-    <t>&lt;30 ft</t>
-  </si>
-  <si>
-    <t>30-60 ft</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> &gt;60 ft</t>
-  </si>
-  <si>
-    <t>&lt; 100 ft</t>
-  </si>
-  <si>
     <t>RTAI = 5</t>
   </si>
   <si>
@@ -48,16 +36,28 @@
     <t>RTAI = 3</t>
   </si>
   <si>
-    <t>100 - 500 ft</t>
-  </si>
-  <si>
     <t>RTAI = 2</t>
   </si>
   <si>
-    <t>&gt; 500 ft</t>
-  </si>
-  <si>
     <t>RTAI =1</t>
+  </si>
+  <si>
+    <t>&lt;30 ft (depth)</t>
+  </si>
+  <si>
+    <t>30-60 ft (depth)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> &gt;60 ft (depth)</t>
+  </si>
+  <si>
+    <t>&lt; 100 ft (width)</t>
+  </si>
+  <si>
+    <t>100 - 500 ft (width)</t>
+  </si>
+  <si>
+    <t>&gt; 500 ft (width)</t>
   </si>
 </sst>
 </file>
@@ -415,7 +415,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,55 +423,55 @@
     <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
